--- a/UnitTestHVACChecker/测试数据/测试数据.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7110"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7110" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="不同顺序系统类型" sheetId="1" r:id="rId1"/>
+    <sheet name="不同顺序外窗" sheetId="2" r:id="rId2"/>
+    <sheet name="GB50016_2014_8.5.1测试数据" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>第一个风口系统类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,70 @@
   </si>
   <si>
     <t>正压送风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个外窗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个外窗是否为可开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个外窗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个外窗是否为可开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标外窗编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个外窗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个外窗是否为可开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有加压送风口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风口是否连有风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有可开启外窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防烟楼梯间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -482,12 +546,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -495,12 +663,161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UnitTestHVACChecker/测试数据/测试数据.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据.xlsx
@@ -4,19 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7110" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="不同顺序系统类型" sheetId="1" r:id="rId1"/>
     <sheet name="不同顺序外窗" sheetId="2" r:id="rId2"/>
-    <sheet name="GB50016_2014_8.5.1测试数据" sheetId="3" r:id="rId3"/>
+    <sheet name="GB50016_2014_8_5_1" sheetId="4" r:id="rId3"/>
+    <sheet name="GB50016_2014_8_5_1顺序测试" sheetId="6" r:id="rId4"/>
+    <sheet name="GB50016_2014_8_5_2" sheetId="5" r:id="rId5"/>
+    <sheet name="GB50016_2014_8_5_2逐条测试" sheetId="9" r:id="rId6"/>
+    <sheet name="GB50016_2014_8_5_3逐条测试" sheetId="10" r:id="rId7"/>
+    <sheet name="GB50016_2014_8_5_3" sheetId="11" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">GB50016_2014_8_5_2!$F:$F</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="117">
   <si>
     <t>第一个风口系统类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,15 +102,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>防烟楼梯间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>建筑类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建筑高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防烟楼梯间</t>
+    <t>楼层高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,7 +126,325 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>住宅建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.1条条文规定。请专家复核：未设置防烟设施的楼梯间前室或合用前室是否采用敞开的阳台、凹廊，或者前室或合用前室是否具有不同朝向的可开启外窗，且可开启外窗的面积满足自然排烟口的面积要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计满足规范GB50016_2014中第8.5.1条条文规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.1条条文规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要复核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>房间ID</t>
+  </si>
+  <si>
+    <t>房间类型</t>
+  </si>
+  <si>
+    <t>是否有加压送风口</t>
+  </si>
+  <si>
+    <t>风口是否连有风机</t>
+  </si>
+  <si>
+    <t>是否有可开启外窗</t>
+  </si>
+  <si>
+    <t>是否通过</t>
+  </si>
+  <si>
+    <t>建筑类型</t>
+  </si>
+  <si>
+    <t>楼层高度</t>
+  </si>
+  <si>
+    <t>批注</t>
+  </si>
+  <si>
+    <t>是否需要复核</t>
+  </si>
+  <si>
+    <t>防烟楼梯间</t>
+  </si>
+  <si>
+    <t>住宅</t>
+  </si>
+  <si>
+    <t>设计满足规范GB50016_2014中第8.5.1条条文规定。</t>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.1条条文规定。请专家复核：未设置防烟设施的楼梯间前室或合用前室是否采用敞开的阳台、凹廊，或者前室或合用前室是否具有不同朝向的可开启外窗，且可开启外窗的面积满足自然排烟口的面积要求。</t>
+  </si>
+  <si>
+    <t>丙类厂房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙类仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有排烟口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计满足规范GB50016_2014中第8.5.2条条文规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁类生产车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丙类仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.2条条文规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丙类生产车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间3</t>
+  </si>
+  <si>
+    <t>房间4</t>
+  </si>
+  <si>
+    <t>房间5</t>
+  </si>
+  <si>
+    <t>房间6</t>
+  </si>
+  <si>
+    <t>房间7</t>
+  </si>
+  <si>
+    <t>房间8</t>
+  </si>
+  <si>
+    <t>房间9</t>
+  </si>
+  <si>
+    <t>房间10</t>
+  </si>
+  <si>
+    <t>房间11</t>
+  </si>
+  <si>
+    <t>房间12</t>
+  </si>
+  <si>
+    <t>房间13</t>
+  </si>
+  <si>
+    <t>房间14</t>
+  </si>
+  <si>
+    <t>房间15</t>
+  </si>
+  <si>
+    <t>房间16</t>
+  </si>
+  <si>
+    <t>房间17</t>
+  </si>
+  <si>
+    <t>房间18</t>
+  </si>
+  <si>
+    <t>房间19</t>
+  </si>
+  <si>
+    <t>房间20</t>
+  </si>
+  <si>
+    <t>房间21</t>
+  </si>
+  <si>
+    <t>房间22</t>
+  </si>
+  <si>
+    <t>房间23</t>
+  </si>
+  <si>
+    <t>房间24</t>
+  </si>
+  <si>
+    <t>房间25</t>
+  </si>
+  <si>
+    <t>房间26</t>
+  </si>
+  <si>
+    <t>房间位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁类厂房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.2条条文规定。请专家复核：相关违规房间是否人员长期停留或可燃物较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.2条条文规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>房间2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有排烟口</t>
+  </si>
+  <si>
+    <t>房间面积</t>
+  </si>
+  <si>
+    <t>走廊长度</t>
+  </si>
+  <si>
+    <t>房间位置</t>
+  </si>
+  <si>
+    <t>房间名称</t>
+  </si>
+  <si>
+    <t>房间人数</t>
+  </si>
+  <si>
+    <t>房间楼层编号</t>
+  </si>
+  <si>
+    <t>复审类型</t>
+  </si>
+  <si>
+    <t>公共建筑</t>
+  </si>
+  <si>
+    <t>设计满足规范GB50016_2014中第8.5.3条条文规定。</t>
+  </si>
+  <si>
+    <t>房间1</t>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.3条条文规定。</t>
+  </si>
+  <si>
+    <t>房间2</t>
+  </si>
+  <si>
+    <t>中庭</t>
+  </si>
+  <si>
+    <t>走廊</t>
+  </si>
+  <si>
+    <t>普通房间</t>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.3条条文规定。请专家复核：相关违规房间是否人员长期停留</t>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.3条条文规定。请专家复核：相关违规房间是否人员长期停留或可燃物较多</t>
+  </si>
+  <si>
+    <t>厂房</t>
+  </si>
+  <si>
+    <t>歌舞娱乐放映游艺场所</t>
+  </si>
+  <si>
+    <t>办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.3条条文规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +467,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,9 +498,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,25 +1007,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="70.375" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -696,19 +1042,49 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
@@ -718,19 +1094,49 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="40.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -741,19 +1147,49 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -764,19 +1200,49 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="40.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -787,34 +1253,5634 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="40.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18:Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="27">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="27">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>5000</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>4999</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5000</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>5000</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>5000</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1000</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>999</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1000</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1000</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>39</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>40</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="27">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>39</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="27">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>40</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27" t="s">
+        <v>82</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:F1048576">
+    <filterColumn colId="0"/>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="M39" sqref="M39:M40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="27">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="27">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>5000</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>4999</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5000</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>5000</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>5000</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1000</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>999</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1000</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1000</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>39</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>40</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="G6">
-        <v>50</v>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="27">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>39</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="27">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>40</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27" t="s">
+        <v>82</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28">
+        <v>32</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>300</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29">
+        <v>33</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30">
+        <v>33</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30" t="s">
+        <v>92</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>99</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>99</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>99</v>
+      </c>
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>99</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="27">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="27">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="27">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>300</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>200</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>200</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>300</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>99</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>99</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>99</v>
+      </c>
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>99</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="27">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="27">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="27">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>300</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>300</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTestHVACChecker/测试数据/测试数据.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangT\HVAC-Checker\UnitTestHVACChecker\测试数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="不同顺序系统类型" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,13 @@
     <sheet name="GB50016_2014_8_5_1顺序测试" sheetId="6" r:id="rId4"/>
     <sheet name="GB50016_2014_8_5_2" sheetId="5" r:id="rId5"/>
     <sheet name="GB50016_2014_8_5_2逐条测试" sheetId="9" r:id="rId6"/>
-    <sheet name="GB50016_2014_8_5_3逐条测试" sheetId="10" r:id="rId7"/>
-    <sheet name="GB50016_2014_8_5_3" sheetId="11" r:id="rId8"/>
+    <sheet name="GB51251_2017_3_1_2通过" sheetId="16" r:id="rId7"/>
+    <sheet name="GB51251_2017_3_1_2不通过" sheetId="15" r:id="rId8"/>
+    <sheet name="GB50016_2014_8_5_3逐条测试" sheetId="10" r:id="rId9"/>
+    <sheet name="GB50016_2014_8_5_3" sheetId="11" r:id="rId10"/>
+    <sheet name="GB50016_2014_8_5_4多区域_通过" sheetId="13" r:id="rId11"/>
+    <sheet name="GB50016_2014_8_5_4多区域" sheetId="14" r:id="rId12"/>
+    <sheet name="GB50016_2014_8_5_4多区域_无走廊区域" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">GB50016_2014_8_5_2!$F:$F</definedName>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="138">
   <si>
     <t>第一个风口系统类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,12 +457,95 @@
     <t>房间21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>区域编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计满足规范GB50016_2014中第8.5.4条条文规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.3条条文规定。请专家复核：相关违规房间是否人员长期停留或可燃物较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.4条条文规定。请专家复核：相关违规房间是否人员长期停留或可燃物较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.4条条文规定。请专家复核：相关违规房间是否人员长期停留或可燃物较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.4条条文规定。请专家复核：相关违规房间是否人员长期停留或可燃物较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.2条条文规定。请专家复核：相关违规房间是否人员长期停留或人员、可燃物较多</t>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.2条条文规定。请专家复核：相关违规房间是否人员长期停留或人员、可燃物较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB50016_2014中第8.5.2条条文规定。请专家复核：相关违规房间是否人员长期停留或人员、可燃物较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计满足规范GB51251_2017中第3.1.2条条文规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB51251_2017中第3.1.2条条文规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合用前室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有加压送风口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用前室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防电梯前室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立前室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不满足规范GB51251_2017中第3.1.2条条文规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防烟楼梯间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,12 +569,30 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -498,11 +609,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,11 +640,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -557,7 +694,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,9 +726,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,6 +761,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -798,14 +937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -814,7 +953,7 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -831,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -848,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -865,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -888,15 +1027,5193 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I17" sqref="A1:Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>99</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>99</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>99</v>
+      </c>
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>99</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>300</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>300</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2">
+        <v>32</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="2">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="2">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="2">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="2">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="2">
+        <v>32</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="2">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="4">
+        <v>32</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>100</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="4">
+        <v>32</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>100</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="4">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>100</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="4">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>100</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="4">
+        <v>32</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>30</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2</v>
+      </c>
+      <c r="R14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="4">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>30</v>
+      </c>
+      <c r="L15" s="4">
+        <v>20</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="6">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>20</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>2</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="6">
+        <v>32</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>20</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="6">
+        <v>32</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>20</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>2</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="6">
+        <v>32</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>20</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="6">
+        <v>32</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>70</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>2</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>2</v>
+      </c>
+      <c r="R20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="6">
+        <v>32</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>30</v>
+      </c>
+      <c r="L21" s="6">
+        <v>20</v>
+      </c>
+      <c r="M21" s="6">
+        <v>2</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2">
+        <v>32</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="2">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="2">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="2">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="2">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="2">
+        <v>32</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="2">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="4">
+        <v>32</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>100</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="4">
+        <v>32</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>100</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="4">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>100</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="4">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>100</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="4">
+        <v>32</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>30</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2</v>
+      </c>
+      <c r="R14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="4">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>30</v>
+      </c>
+      <c r="L15" s="4">
+        <v>20</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="6">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>20</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>2</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="6">
+        <v>32</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>20</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="6">
+        <v>32</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>20</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>2</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="6">
+        <v>32</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>20</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="6">
+        <v>32</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>70</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>2</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>2</v>
+      </c>
+      <c r="R20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="6">
+        <v>32</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>30</v>
+      </c>
+      <c r="L21" s="6">
+        <v>20</v>
+      </c>
+      <c r="M21" s="6">
+        <v>2</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="4">
+        <v>32</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>100</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>2</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="4">
+        <v>32</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>100</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="4">
+        <v>32</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>100</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="4">
+        <v>32</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>100</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="4">
+        <v>32</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>30</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>2</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>2</v>
+      </c>
+      <c r="R26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="4">
+        <v>32</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>30</v>
+      </c>
+      <c r="L27" s="4">
+        <v>20</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2">
+        <v>32</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="2">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="2">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="2">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="2">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="2">
+        <v>32</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="2">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="4">
+        <v>32</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>100</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="4">
+        <v>32</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>100</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="4">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>100</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="4">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>100</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="4">
+        <v>32</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>30</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2</v>
+      </c>
+      <c r="R14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="4">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>30</v>
+      </c>
+      <c r="L15" s="4">
+        <v>20</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="6">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>20</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>2</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="6">
+        <v>32</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>20</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="6">
+        <v>32</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>20</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>2</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="6">
+        <v>32</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>20</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="6">
+        <v>32</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>70</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>2</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>2</v>
+      </c>
+      <c r="R20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="6">
+        <v>32</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>30</v>
+      </c>
+      <c r="L21" s="6">
+        <v>20</v>
+      </c>
+      <c r="M21" s="6">
+        <v>2</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="4">
+        <v>32</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>100</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>2</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="4">
+        <v>32</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>100</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="4">
+        <v>32</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>100</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="4">
+        <v>32</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>100</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="4">
+        <v>32</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>30</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>2</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>2</v>
+      </c>
+      <c r="R26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
@@ -907,7 +6224,7 @@
     <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -930,7 +6247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -953,7 +6270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -976,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1006,14 +6323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
@@ -1025,7 +6342,7 @@
     <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +6395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1131,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="40.5">
+    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1184,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1237,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="40.5">
+    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1290,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1343,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="40.5">
+    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1403,14 +6720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -1426,7 +6743,7 @@
     <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +6796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1532,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1585,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1638,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1691,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1744,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1804,14 +7121,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18:Q27"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
@@ -1827,7 +7144,7 @@
     <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1877,10 +7194,10 @@
         <v>99</v>
       </c>
       <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1933,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1986,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27">
+    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2039,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27">
+    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2092,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2145,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2198,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2251,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2268,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2280,7 +7597,7 @@
         <v>49</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>4999</v>
@@ -2301,10 +7618,10 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2357,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2410,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2463,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2516,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2533,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2545,7 +7862,7 @@
         <v>49</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>999</v>
@@ -2566,10 +7883,10 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2622,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2675,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2728,7 +8045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2760,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L18">
         <v>40</v>
@@ -2781,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2813,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L19">
         <v>39</v>
@@ -2834,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2866,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L20">
         <v>40</v>
@@ -2887,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2919,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L21">
         <v>40</v>
@@ -2940,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2972,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L22">
         <v>40</v>
@@ -2993,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3025,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L23">
         <v>40</v>
@@ -3046,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="27">
+    <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3078,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L24">
         <v>39</v>
@@ -3096,10 +8413,10 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3131,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L25">
         <v>40</v>
@@ -3149,10 +8466,10 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3184,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L26">
         <v>40</v>
@@ -3205,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="27">
+    <row r="27" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3237,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L27">
         <v>40</v>
@@ -3255,29 +8572,27 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F1048576">
-    <filterColumn colId="0"/>
-  </autoFilter>
+  <autoFilter ref="F1:F1048576"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M39" sqref="M39:M40"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8:M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
@@ -3290,9 +8605,10 @@
     <col min="11" max="12" width="12.875" customWidth="1"/>
     <col min="13" max="14" width="16.5" customWidth="1"/>
     <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3338,8 +8654,11 @@
       <c r="O1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3385,8 +8704,11 @@
       <c r="O2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3432,8 +8754,11 @@
       <c r="O3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="27">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3459,7 +8784,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -3479,8 +8804,11 @@
       <c r="O4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="27">
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3506,7 +8834,7 @@
         <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -3526,8 +8854,11 @@
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3573,8 +8904,11 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3620,8 +8954,11 @@
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3659,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>63</v>
@@ -3667,8 +9004,11 @@
       <c r="O8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3685,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -3694,10 +9034,10 @@
         <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>4999</v>
@@ -3706,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>64</v>
@@ -3714,8 +9054,11 @@
       <c r="O9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3753,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
         <v>65</v>
@@ -3761,8 +9104,11 @@
       <c r="O10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3800,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
@@ -3808,8 +9154,11 @@
       <c r="O11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3847,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
         <v>67</v>
@@ -3855,8 +9204,11 @@
       <c r="O12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3894,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
         <v>68</v>
@@ -3902,8 +9254,11 @@
       <c r="O13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3920,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -3929,10 +9284,10 @@
         <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>999</v>
@@ -3941,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
         <v>69</v>
@@ -3949,8 +9304,11 @@
       <c r="O14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3988,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
         <v>70</v>
@@ -3996,8 +9354,11 @@
       <c r="O15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4035,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
         <v>71</v>
@@ -4043,8 +9404,11 @@
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4082,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
         <v>72</v>
@@ -4090,8 +9454,11 @@
       <c r="O17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4129,7 +9496,7 @@
         <v>40</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
         <v>73</v>
@@ -4137,8 +9504,11 @@
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4176,7 +9546,7 @@
         <v>39</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
         <v>74</v>
@@ -4184,8 +9554,11 @@
       <c r="O19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4223,7 +9596,7 @@
         <v>40</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
         <v>75</v>
@@ -4231,8 +9604,11 @@
       <c r="O20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4270,7 +9646,7 @@
         <v>40</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
         <v>76</v>
@@ -4278,8 +9654,11 @@
       <c r="O21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4317,7 +9696,7 @@
         <v>40</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
         <v>77</v>
@@ -4325,8 +9704,11 @@
       <c r="O22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4364,7 +9746,7 @@
         <v>40</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
         <v>78</v>
@@ -4372,8 +9754,11 @@
       <c r="O23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="27">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4399,7 +9784,7 @@
         <v>32</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -4411,7 +9796,7 @@
         <v>39</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
         <v>79</v>
@@ -4419,8 +9804,11 @@
       <c r="O24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="27">
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4446,7 +9834,7 @@
         <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -4458,7 +9846,7 @@
         <v>40</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
         <v>80</v>
@@ -4466,8 +9854,11 @@
       <c r="O25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4505,7 +9896,7 @@
         <v>40</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
         <v>81</v>
@@ -4513,8 +9904,11 @@
       <c r="O26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="27">
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4540,7 +9934,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -4552,7 +9946,7 @@
         <v>40</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
         <v>82</v>
@@ -4560,8 +9954,11 @@
       <c r="O27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4607,8 +10004,11 @@
       <c r="O28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4646,7 +10046,7 @@
         <v>20</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
         <v>91</v>
@@ -4654,8 +10054,11 @@
       <c r="O29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4693,12 +10096,15 @@
         <v>20</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
         <v>92</v>
       </c>
       <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
         <v>1</v>
       </c>
     </row>
@@ -4710,14 +10116,1348 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2">
+        <v>120</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3">
+        <v>120</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5">
+        <v>120</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6">
+        <v>120</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>99</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7">
+        <v>120</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>99</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8">
+        <v>120</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9">
+        <v>120</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10">
+        <v>120</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11">
+        <v>120</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>99</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12">
+        <v>120</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>99</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>99</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>99</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>99</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12">
+        <v>60</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>99</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
@@ -4733,7 +11473,7 @@
     <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4786,7 +11526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4839,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4892,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4945,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4998,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5051,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5104,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5157,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5210,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5263,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5316,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5369,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5422,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27">
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5475,7 +12215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5528,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="27">
+    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5581,7 +12321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="27">
+    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5634,7 +12374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5687,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5740,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5793,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5846,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5896,990 +12636,6 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>200</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>200</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5">
-        <v>32</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>99</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>99</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>99</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>-1</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>99</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9">
-        <v>32</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>99</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>99</v>
-      </c>
-      <c r="L10">
-        <v>20</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>99</v>
-      </c>
-      <c r="L11">
-        <v>19</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12">
-        <v>32</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>99</v>
-      </c>
-      <c r="L12">
-        <v>20</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13">
-        <v>32</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>100</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>68</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="27">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14">
-        <v>32</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15">
-        <v>32</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="27">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16">
-        <v>32</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="27">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17">
-        <v>32</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>300</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18">
-        <v>32</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>300</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>115</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
         <v>2</v>
       </c>
     </row>

--- a/UnitTestHVACChecker/测试数据/测试数据.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="不同顺序系统类型" sheetId="1" r:id="rId1"/>
@@ -68,27 +68,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二个外窗类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二个外窗是否为可开启</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第三个外窗类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第三个外窗是否为可开启</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目标外窗编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个外窗类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -538,6 +526,18 @@
   </si>
   <si>
     <t>防烟楼梯间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个窗户的有效面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个窗户的有效面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个窗户的有效面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,16 +944,16 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -987,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1035,102 +1035,102 @@
       <selection activeCell="I17" sqref="A1:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>98</v>
       </c>
-      <c r="P1" t="s">
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1157,12 +1157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1210,12 +1210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1230,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H4">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1263,12 +1263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1283,13 +1283,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1316,12 +1316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H6">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1369,12 +1369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1389,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1422,12 +1422,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1442,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H8">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1475,12 +1475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1495,13 +1495,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1528,12 +1528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H10">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1581,12 +1581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1601,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H11">
         <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1634,12 +1634,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1654,13 +1654,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H12">
         <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1687,12 +1687,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1707,13 +1707,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H13">
         <v>32</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1740,12 +1740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1760,13 +1760,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H14">
         <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1793,12 +1793,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1813,13 +1813,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H15">
         <v>32</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1846,12 +1846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1866,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H16">
         <v>32</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1899,12 +1899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H17">
         <v>32</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1952,12 +1952,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1972,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H18">
         <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -2019,98 +2019,98 @@
       <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="H2" s="2">
         <v>32</v>
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O2" s="2">
         <v>1</v>
@@ -2144,12 +2144,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2">
         <v>32</v>
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -2198,12 +2198,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2">
         <v>32</v>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O4" s="2">
         <v>1</v>
@@ -2252,12 +2252,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2">
         <v>32</v>
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
@@ -2306,12 +2306,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H6" s="2">
         <v>32</v>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -2360,12 +2360,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2">
         <v>32</v>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
@@ -2414,12 +2414,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>1</v>
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2">
         <v>32</v>
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -2468,12 +2468,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>1</v>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H9" s="2">
         <v>32</v>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O9" s="2">
         <v>1</v>
@@ -2522,12 +2522,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="b">
         <v>1</v>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H10" s="4">
         <v>32</v>
@@ -2561,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O10" s="4">
         <v>1</v>
@@ -2576,12 +2576,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4" t="b">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H11" s="4">
         <v>32</v>
@@ -2615,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11" s="4">
         <v>1</v>
@@ -2630,12 +2630,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" s="4" t="b">
         <v>1</v>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H12" s="4">
         <v>32</v>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12" s="4">
         <v>1</v>
@@ -2684,12 +2684,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4" t="b">
         <v>1</v>
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H13" s="4">
         <v>32</v>
@@ -2723,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13" s="4">
         <v>1</v>
@@ -2738,12 +2738,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C14" s="4" t="b">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H14" s="4">
         <v>32</v>
@@ -2777,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O14" s="4">
         <v>1</v>
@@ -2792,12 +2792,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4" t="b">
         <v>1</v>
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H15" s="4">
         <v>32</v>
@@ -2831,7 +2831,7 @@
         <v>2</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O15" s="4">
         <v>1</v>
@@ -2846,12 +2846,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" s="6" t="b">
         <v>1</v>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H16" s="6">
         <v>32</v>
@@ -2885,7 +2885,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O16" s="6">
         <v>1</v>
@@ -2900,12 +2900,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" s="6" t="b">
         <v>1</v>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H17" s="6">
         <v>32</v>
@@ -2939,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O17" s="6">
         <v>1</v>
@@ -2954,12 +2954,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C18" s="6" t="b">
         <v>1</v>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H18" s="6">
         <v>32</v>
@@ -2993,7 +2993,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O18" s="6">
         <v>1</v>
@@ -3008,12 +3008,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="6" t="b">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H19" s="6">
         <v>32</v>
@@ -3047,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O19" s="6">
         <v>1</v>
@@ -3062,12 +3062,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20" s="6" t="b">
         <v>1</v>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H20" s="6">
         <v>32</v>
@@ -3101,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O20" s="6">
         <v>1</v>
@@ -3116,12 +3116,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="6" t="b">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H21" s="6">
         <v>32</v>
@@ -3155,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O21" s="6">
         <v>1</v>
@@ -3185,104 +3185,104 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="H2" s="2">
         <v>32</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J2" s="2" t="b">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O2" s="2">
         <v>1</v>
@@ -3312,12 +3312,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
@@ -3332,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2">
         <v>32</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J3" s="2" t="b">
         <v>1</v>
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -3368,12 +3368,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
@@ -3388,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2">
         <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J4" s="2" t="b">
         <v>1</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O4" s="2">
         <v>1</v>
@@ -3424,12 +3424,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
@@ -3444,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2">
         <v>32</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J5" s="2" t="b">
         <v>1</v>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
@@ -3480,12 +3480,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
@@ -3500,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H6" s="2">
         <v>32</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J6" s="2" t="b">
         <v>1</v>
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -3536,12 +3536,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2">
         <v>32</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J7" s="2" t="b">
         <v>1</v>
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
@@ -3592,12 +3592,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>1</v>
@@ -3612,13 +3612,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2">
         <v>32</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J8" s="2" t="b">
         <v>1</v>
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -3648,12 +3648,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>1</v>
@@ -3668,13 +3668,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H9" s="2">
         <v>32</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" s="2" t="b">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O9" s="2">
         <v>1</v>
@@ -3704,12 +3704,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="b">
         <v>1</v>
@@ -3724,13 +3724,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H10" s="4">
         <v>32</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J10" s="4" t="b">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O10" s="4">
         <v>1</v>
@@ -3760,12 +3760,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4" t="b">
         <v>1</v>
@@ -3780,13 +3780,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H11" s="4">
         <v>32</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J11" s="4" t="b">
         <v>1</v>
@@ -3801,7 +3801,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11" s="4">
         <v>1</v>
@@ -3816,12 +3816,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" s="4" t="b">
         <v>1</v>
@@ -3836,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H12" s="4">
         <v>32</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J12" s="4" t="b">
         <v>1</v>
@@ -3857,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12" s="4">
         <v>1</v>
@@ -3872,12 +3872,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4" t="b">
         <v>1</v>
@@ -3892,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H13" s="4">
         <v>32</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
@@ -3913,7 +3913,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13" s="4">
         <v>1</v>
@@ -3928,12 +3928,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C14" s="4" t="b">
         <v>1</v>
@@ -3948,13 +3948,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H14" s="4">
         <v>32</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J14" s="4" t="b">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O14" s="4">
         <v>1</v>
@@ -3984,12 +3984,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4" t="b">
         <v>1</v>
@@ -4004,13 +4004,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H15" s="4">
         <v>32</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J15" s="4" t="b">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>2</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O15" s="4">
         <v>1</v>
@@ -4040,12 +4040,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" s="6" t="b">
         <v>1</v>
@@ -4060,13 +4060,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H16" s="6">
         <v>32</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J16" s="6" t="b">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O16" s="6">
         <v>1</v>
@@ -4096,12 +4096,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" s="6" t="b">
         <v>1</v>
@@ -4116,13 +4116,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H17" s="6">
         <v>32</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J17" s="6" t="b">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O17" s="6">
         <v>1</v>
@@ -4152,12 +4152,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C18" s="6" t="b">
         <v>1</v>
@@ -4172,13 +4172,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H18" s="6">
         <v>32</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J18" s="6" t="b">
         <v>0</v>
@@ -4193,7 +4193,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O18" s="6">
         <v>1</v>
@@ -4208,12 +4208,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="6" t="b">
         <v>1</v>
@@ -4228,13 +4228,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H19" s="6">
         <v>32</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J19" s="6" t="b">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O19" s="6">
         <v>1</v>
@@ -4264,12 +4264,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20" s="6" t="b">
         <v>1</v>
@@ -4284,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H20" s="6">
         <v>32</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J20" s="6" t="b">
         <v>1</v>
@@ -4305,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O20" s="6">
         <v>1</v>
@@ -4320,12 +4320,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="6" t="b">
         <v>1</v>
@@ -4340,13 +4340,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H21" s="6">
         <v>32</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J21" s="6" t="b">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O21" s="6">
         <v>1</v>
@@ -4376,12 +4376,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C22" s="4" t="b">
         <v>1</v>
@@ -4396,13 +4396,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H22" s="4">
         <v>32</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J22" s="4" t="b">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O22" s="4">
         <v>1</v>
@@ -4432,12 +4432,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="4" t="b">
         <v>1</v>
@@ -4452,13 +4452,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H23" s="4">
         <v>32</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J23" s="4" t="b">
         <v>1</v>
@@ -4473,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O23" s="4">
         <v>1</v>
@@ -4488,12 +4488,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C24" s="4" t="b">
         <v>1</v>
@@ -4508,13 +4508,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H24" s="4">
         <v>32</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J24" s="4" t="b">
         <v>1</v>
@@ -4529,7 +4529,7 @@
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24" s="4">
         <v>1</v>
@@ -4544,12 +4544,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25" s="4" t="b">
         <v>1</v>
@@ -4564,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H25" s="4">
         <v>32</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J25" s="4" t="b">
         <v>1</v>
@@ -4585,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O25" s="4">
         <v>1</v>
@@ -4600,12 +4600,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="4" t="b">
         <v>1</v>
@@ -4620,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H26" s="4">
         <v>32</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J26" s="4" t="b">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26" s="4">
         <v>1</v>
@@ -4656,12 +4656,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C27" s="4" t="b">
         <v>0</v>
@@ -4676,13 +4676,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H27" s="4">
         <v>32</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J27" s="4" t="b">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O27" s="4">
         <v>1</v>
@@ -4727,104 +4727,104 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="H2" s="2">
         <v>32</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J2" s="2" t="b">
         <v>0</v>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O2" s="2">
         <v>1</v>
@@ -4854,12 +4854,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2">
         <v>32</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J3" s="2" t="b">
         <v>1</v>
@@ -4895,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -4910,12 +4910,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
@@ -4930,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2">
         <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J4" s="2" t="b">
         <v>1</v>
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O4" s="2">
         <v>1</v>
@@ -4966,12 +4966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
@@ -4986,13 +4986,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2">
         <v>32</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J5" s="2" t="b">
         <v>1</v>
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
@@ -5022,12 +5022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
@@ -5042,13 +5042,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H6" s="2">
         <v>32</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J6" s="2" t="b">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -5078,12 +5078,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
@@ -5098,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2">
         <v>32</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J7" s="2" t="b">
         <v>1</v>
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
@@ -5134,12 +5134,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>1</v>
@@ -5154,13 +5154,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2">
         <v>32</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J8" s="2" t="b">
         <v>1</v>
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -5190,12 +5190,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>1</v>
@@ -5210,13 +5210,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H9" s="2">
         <v>32</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" s="2" t="b">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O9" s="2">
         <v>1</v>
@@ -5246,12 +5246,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="b">
         <v>1</v>
@@ -5266,13 +5266,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H10" s="4">
         <v>32</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J10" s="4" t="b">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O10" s="4">
         <v>1</v>
@@ -5302,12 +5302,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4" t="b">
         <v>1</v>
@@ -5322,13 +5322,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H11" s="4">
         <v>32</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J11" s="4" t="b">
         <v>1</v>
@@ -5343,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11" s="4">
         <v>1</v>
@@ -5358,12 +5358,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" s="4" t="b">
         <v>1</v>
@@ -5378,13 +5378,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H12" s="4">
         <v>32</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J12" s="4" t="b">
         <v>1</v>
@@ -5399,7 +5399,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12" s="4">
         <v>1</v>
@@ -5414,12 +5414,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4" t="b">
         <v>1</v>
@@ -5434,13 +5434,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H13" s="4">
         <v>32</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
@@ -5455,7 +5455,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13" s="4">
         <v>1</v>
@@ -5470,12 +5470,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C14" s="4" t="b">
         <v>1</v>
@@ -5490,13 +5490,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H14" s="4">
         <v>32</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J14" s="4" t="b">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>2</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O14" s="4">
         <v>1</v>
@@ -5526,12 +5526,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4" t="b">
         <v>1</v>
@@ -5546,13 +5546,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H15" s="4">
         <v>32</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J15" s="4" t="b">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O15" s="4">
         <v>1</v>
@@ -5582,12 +5582,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" s="6" t="b">
         <v>1</v>
@@ -5602,13 +5602,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H16" s="6">
         <v>32</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J16" s="6" t="b">
         <v>0</v>
@@ -5623,7 +5623,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O16" s="6">
         <v>1</v>
@@ -5638,12 +5638,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" s="6" t="b">
         <v>1</v>
@@ -5658,13 +5658,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H17" s="6">
         <v>32</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J17" s="6" t="b">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O17" s="6">
         <v>1</v>
@@ -5694,12 +5694,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C18" s="6" t="b">
         <v>1</v>
@@ -5714,13 +5714,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H18" s="6">
         <v>32</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J18" s="6" t="b">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O18" s="6">
         <v>1</v>
@@ -5750,12 +5750,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="6" t="b">
         <v>1</v>
@@ -5770,13 +5770,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H19" s="6">
         <v>32</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J19" s="6" t="b">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O19" s="6">
         <v>1</v>
@@ -5806,12 +5806,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20" s="6" t="b">
         <v>1</v>
@@ -5826,13 +5826,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H20" s="6">
         <v>32</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J20" s="6" t="b">
         <v>1</v>
@@ -5847,7 +5847,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O20" s="6">
         <v>1</v>
@@ -5862,12 +5862,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="6" t="b">
         <v>1</v>
@@ -5882,13 +5882,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H21" s="6">
         <v>32</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J21" s="6" t="b">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O21" s="6">
         <v>1</v>
@@ -5918,12 +5918,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C22" s="4" t="b">
         <v>1</v>
@@ -5938,13 +5938,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H22" s="4">
         <v>32</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J22" s="4" t="b">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O22" s="4">
         <v>1</v>
@@ -5974,12 +5974,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="4" t="b">
         <v>1</v>
@@ -5994,13 +5994,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H23" s="4">
         <v>32</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J23" s="4" t="b">
         <v>1</v>
@@ -6015,7 +6015,7 @@
         <v>2</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O23" s="4">
         <v>1</v>
@@ -6030,12 +6030,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C24" s="4" t="b">
         <v>1</v>
@@ -6050,13 +6050,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H24" s="4">
         <v>32</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J24" s="4" t="b">
         <v>1</v>
@@ -6071,7 +6071,7 @@
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24" s="4">
         <v>1</v>
@@ -6086,12 +6086,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25" s="4" t="b">
         <v>1</v>
@@ -6106,13 +6106,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H25" s="4">
         <v>32</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J25" s="4" t="b">
         <v>1</v>
@@ -6127,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O25" s="4">
         <v>1</v>
@@ -6142,12 +6142,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="4" t="b">
         <v>1</v>
@@ -6162,13 +6162,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H26" s="4">
         <v>32</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J26" s="4" t="b">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>2</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26" s="4">
         <v>1</v>
@@ -6209,45 +6209,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -6270,21 +6270,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -6293,21 +6293,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -6330,98 +6330,98 @@
       <selection activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="70.375" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="70.36328125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
       </c>
       <c r="H2">
         <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -6448,12 +6448,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="56" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -6468,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -6489,7 +6489,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -6501,12 +6501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6521,13 +6521,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -6542,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -6554,12 +6554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="56" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6574,13 +6574,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -6607,12 +6607,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -6627,13 +6627,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -6648,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -6660,12 +6660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="56" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -6680,13 +6680,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -6701,7 +6701,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -6727,102 +6727,102 @@
       <selection activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -6849,12 +6849,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -6869,13 +6869,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -6902,12 +6902,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6922,13 +6922,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -6943,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -6955,12 +6955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6975,13 +6975,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -6996,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -7008,12 +7008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -7049,7 +7049,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -7061,12 +7061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -7081,13 +7081,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -7102,7 +7102,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -7128,102 +7128,102 @@
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -7250,33 +7250,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -7303,12 +7303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -7323,13 +7323,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -7344,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -7356,12 +7356,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -7376,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -7397,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -7409,33 +7409,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -7450,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -7462,33 +7462,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -7515,12 +7515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -7535,13 +7535,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -7568,12 +7568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -7588,13 +7588,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -7609,7 +7609,7 @@
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -7621,12 +7621,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -7641,13 +7641,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -7674,12 +7674,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -7694,13 +7694,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -7727,12 +7727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -7747,13 +7747,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>7</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -7780,12 +7780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -7800,13 +7800,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>32</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -7821,7 +7821,7 @@
         <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -7833,12 +7833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -7853,13 +7853,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H14">
         <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -7874,7 +7874,7 @@
         <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -7886,12 +7886,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -7906,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H15">
         <v>32</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         <v>7</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -7939,12 +7939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -7959,13 +7959,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>32</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -7980,7 +7980,7 @@
         <v>7</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -7992,12 +7992,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -8012,13 +8012,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17">
         <v>32</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -8033,7 +8033,7 @@
         <v>7</v>
       </c>
       <c r="N17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -8045,12 +8045,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -8065,13 +8065,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -8086,7 +8086,7 @@
         <v>7</v>
       </c>
       <c r="N18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -8098,12 +8098,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>7</v>
       </c>
       <c r="N19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -8151,12 +8151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -8171,13 +8171,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>32</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -8192,7 +8192,7 @@
         <v>7</v>
       </c>
       <c r="N20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -8204,12 +8204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -8224,13 +8224,13 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>32</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>7</v>
       </c>
       <c r="N21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -8257,12 +8257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -8277,13 +8277,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H22">
         <v>32</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>7</v>
       </c>
       <c r="N22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -8310,12 +8310,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -8330,13 +8330,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>32</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -8351,7 +8351,7 @@
         <v>7</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -8363,12 +8363,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -8383,13 +8383,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>32</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -8404,7 +8404,7 @@
         <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -8416,12 +8416,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -8436,13 +8436,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -8469,12 +8469,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -8489,13 +8489,13 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>7</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -8522,12 +8522,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -8542,13 +8542,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>32</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -8563,7 +8563,7 @@
         <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -8592,99 +8592,99 @@
       <selection pane="bottomLeft" activeCell="M8" sqref="M8:M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -8708,33 +8708,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -8758,12 +8758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -8778,13 +8778,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -8799,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -8808,12 +8808,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -8828,13 +8828,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -8849,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -8858,33 +8858,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -8899,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -8908,33 +8908,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -8949,7 +8949,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -8958,12 +8958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -8978,13 +8978,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -8999,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -9008,12 +9008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -9028,13 +9028,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -9058,12 +9058,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -9078,13 +9078,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -9099,7 +9099,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -9108,12 +9108,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -9128,13 +9128,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -9158,12 +9158,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -9199,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -9208,12 +9208,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -9228,13 +9228,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>32</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -9258,12 +9258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -9278,13 +9278,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H14">
         <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -9299,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -9308,33 +9308,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15">
-        <v>32</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -9349,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -9358,12 +9358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -9378,13 +9378,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>32</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -9408,33 +9408,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17">
-        <v>32</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -9458,12 +9458,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -9478,13 +9478,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -9499,7 +9499,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -9508,12 +9508,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -9528,13 +9528,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -9549,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -9558,12 +9558,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -9578,13 +9578,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>32</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -9608,12 +9608,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -9628,13 +9628,13 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>32</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -9658,12 +9658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -9678,13 +9678,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H22">
         <v>32</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -9699,7 +9699,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -9708,12 +9708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -9728,13 +9728,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>32</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -9749,7 +9749,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -9758,12 +9758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -9778,13 +9778,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>32</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -9799,7 +9799,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -9808,12 +9808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" ht="28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -9828,13 +9828,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -9849,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -9858,12 +9858,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -9908,12 +9908,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -9928,13 +9928,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>32</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -9949,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -9958,33 +9958,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28">
+        <v>32</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28">
-        <v>32</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -10008,12 +10008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -10028,13 +10028,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>33</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -10058,12 +10058,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -10078,13 +10078,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H30">
         <v>33</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -10099,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -10123,102 +10123,102 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="12" width="11.90625" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>98</v>
-      </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
       </c>
       <c r="H2">
         <v>120</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -10233,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -10245,12 +10245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -10265,13 +10265,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H3">
         <v>120</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -10286,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -10298,12 +10298,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -10318,13 +10318,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H4">
         <v>120</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -10351,12 +10351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -10371,13 +10371,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <v>120</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -10404,12 +10404,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -10424,13 +10424,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>120</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -10457,12 +10457,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -10477,13 +10477,13 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H7">
         <v>120</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -10498,7 +10498,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -10510,12 +10510,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -10530,13 +10530,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H8">
         <v>120</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -10563,12 +10563,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -10583,13 +10583,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>120</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -10616,12 +10616,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -10636,13 +10636,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H10">
         <v>120</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -10669,12 +10669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -10689,13 +10689,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H11">
         <v>120</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -10722,12 +10722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -10742,13 +10742,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H12">
         <v>120</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -10763,7 +10763,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -10786,106 +10786,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="12" width="11.90625" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
       <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>98</v>
-      </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
       </c>
       <c r="H2">
         <v>60</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -10900,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -10912,12 +10912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -10932,13 +10932,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H3">
         <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -10965,12 +10965,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -10985,13 +10985,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H4">
         <v>60</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -11006,7 +11006,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -11018,12 +11018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -11038,13 +11038,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -11071,12 +11071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -11091,13 +11091,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -11124,12 +11124,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H7">
         <v>60</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -11177,12 +11177,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -11197,13 +11197,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H8">
         <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -11218,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -11230,12 +11230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -11250,13 +11250,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>60</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -11271,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -11283,12 +11283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -11303,13 +11303,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H10">
         <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -11336,12 +11336,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -11356,13 +11356,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H11">
         <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -11377,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -11389,12 +11389,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -11409,13 +11409,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H12">
         <v>60</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -11430,7 +11430,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -11457,102 +11457,102 @@
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>98</v>
       </c>
-      <c r="P1" t="s">
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -11567,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -11579,12 +11579,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -11599,13 +11599,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -11632,12 +11632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -11652,13 +11652,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H4">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -11685,12 +11685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -11705,13 +11705,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -11726,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -11738,12 +11738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -11758,13 +11758,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H6">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -11791,12 +11791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -11811,13 +11811,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -11832,7 +11832,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -11844,12 +11844,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -11864,13 +11864,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H8">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -11897,12 +11897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -11917,13 +11917,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -11938,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -11950,12 +11950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -11970,13 +11970,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H10">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -11991,7 +11991,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -12003,12 +12003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -12023,13 +12023,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H11">
         <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -12056,12 +12056,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -12076,13 +12076,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H12">
         <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -12097,7 +12097,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -12109,12 +12109,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -12129,13 +12129,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H13">
         <v>32</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -12150,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -12162,12 +12162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -12182,13 +12182,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H14">
         <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -12203,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -12215,12 +12215,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -12235,13 +12235,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H15">
         <v>32</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -12268,12 +12268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -12288,13 +12288,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H16">
         <v>32</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -12309,7 +12309,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -12321,12 +12321,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -12341,13 +12341,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H17">
         <v>32</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -12362,7 +12362,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -12374,12 +12374,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -12394,13 +12394,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -12427,12 +12427,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -12447,13 +12447,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -12468,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -12480,12 +12480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -12500,13 +12500,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H20">
         <v>32</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -12521,7 +12521,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -12533,33 +12533,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>111</v>
-      </c>
       <c r="H21">
         <v>32</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -12574,7 +12574,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -12586,12 +12586,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -12606,13 +12606,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H22">
         <v>32</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -12627,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O22">
         <v>1</v>

--- a/UnitTestHVACChecker/测试数据/测试数据.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="不同顺序系统类型" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="139">
   <si>
     <t>第一个风口系统类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,9 @@
   <si>
     <t>第三个窗户的有效面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为排烟窗</t>
   </si>
 </sst>
 </file>
@@ -944,16 +947,16 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -987,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1035,23 +1038,23 @@
       <selection activeCell="I17" sqref="A1:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="9" max="9" width="58.08984375" customWidth="1"/>
-    <col min="10" max="10" width="38.36328125" customWidth="1"/>
-    <col min="11" max="12" width="12.90625" customWidth="1"/>
-    <col min="13" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1"/>
-    <col min="16" max="17" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2019,22 +2022,22 @@
       <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="7" width="12.08984375" customWidth="1"/>
-    <col min="9" max="9" width="58.08984375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="38.36328125" customWidth="1"/>
-    <col min="11" max="12" width="12.90625" customWidth="1"/>
-    <col min="13" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1"/>
-    <col min="16" max="17" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2630,7 +2633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3185,22 +3188,22 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="7" width="12.08984375" customWidth="1"/>
-    <col min="9" max="9" width="58.08984375" customWidth="1"/>
-    <col min="10" max="10" width="38.36328125" customWidth="1"/>
-    <col min="11" max="12" width="12.90625" customWidth="1"/>
-    <col min="13" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1"/>
-    <col min="16" max="17" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3256,7 +3259,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3368,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3424,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3760,7 +3763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4096,7 +4099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4727,22 +4730,22 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="7" width="12.08984375" customWidth="1"/>
-    <col min="9" max="9" width="58.08984375" customWidth="1"/>
-    <col min="10" max="10" width="38.36328125" customWidth="1"/>
-    <col min="11" max="12" width="12.90625" customWidth="1"/>
-    <col min="13" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1"/>
-    <col min="16" max="17" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4798,7 +4801,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5022,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5134,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5190,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5358,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5414,7 +5417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5470,7 +5473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -5638,7 +5641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5974,7 +5977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -6142,7 +6145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -6209,22 +6212,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6270,7 +6273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6330,19 +6333,19 @@
       <selection activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" customWidth="1"/>
-    <col min="9" max="9" width="70.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="16" max="17" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="70.375" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -6395,7 +6398,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6448,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6501,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6660,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6721,29 +6724,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1048576"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="58.08984375" customWidth="1"/>
-    <col min="10" max="10" width="38.36328125" customWidth="1"/>
-    <col min="11" max="12" width="12.90625" customWidth="1"/>
-    <col min="13" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1"/>
-    <col min="16" max="17" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -6795,8 +6798,11 @@
       <c r="Q1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6848,8 +6854,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6901,8 +6910,11 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6954,8 +6966,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7007,8 +7022,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7060,8 +7078,11 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7111,6 +7132,9 @@
         <v>-1</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7122,29 +7146,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="9" max="9" width="58.08984375" customWidth="1"/>
-    <col min="10" max="10" width="38.36328125" customWidth="1"/>
-    <col min="11" max="12" width="12.90625" customWidth="1"/>
-    <col min="13" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1"/>
-    <col min="16" max="17" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -7196,8 +7221,11 @@
       <c r="Q1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7249,8 +7277,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7302,8 +7333,11 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="28" x14ac:dyDescent="0.25">
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7355,8 +7389,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.25">
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7408,8 +7445,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7461,8 +7501,11 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7514,8 +7557,11 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7567,8 +7613,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7620,8 +7669,11 @@
       <c r="Q9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7673,8 +7725,11 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7726,8 +7781,11 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7779,8 +7837,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7832,8 +7893,11 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7885,8 +7949,11 @@
       <c r="Q14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7938,8 +8005,11 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7991,8 +8061,11 @@
       <c r="Q16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8044,8 +8117,11 @@
       <c r="Q17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8097,8 +8173,11 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8150,8 +8229,11 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8203,8 +8285,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8256,8 +8341,11 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8309,8 +8397,11 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8362,8 +8453,11 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="28" x14ac:dyDescent="0.25">
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8415,8 +8509,11 @@
       <c r="Q24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="28" x14ac:dyDescent="0.25">
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8468,8 +8565,11 @@
       <c r="Q25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8521,8 +8621,11 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="28" x14ac:dyDescent="0.25">
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8573,6 +8676,9 @@
       </c>
       <c r="Q27">
         <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8584,31 +8690,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8:M30"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="9" max="9" width="58.08984375" customWidth="1"/>
-    <col min="10" max="10" width="38.36328125" customWidth="1"/>
-    <col min="11" max="12" width="12.90625" customWidth="1"/>
-    <col min="13" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -8657,8 +8763,11 @@
       <c r="P1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8707,8 +8816,11 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8757,8 +8869,11 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.25">
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8807,8 +8922,11 @@
       <c r="P4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.25">
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8857,8 +8975,11 @@
       <c r="P5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8907,8 +9028,11 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8957,8 +9081,11 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9007,8 +9134,11 @@
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.25">
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9057,8 +9187,11 @@
       <c r="P9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9107,8 +9240,11 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9157,8 +9293,11 @@
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9207,8 +9346,11 @@
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9257,8 +9399,11 @@
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="28" x14ac:dyDescent="0.25">
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9307,8 +9452,11 @@
       <c r="P14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9357,8 +9505,11 @@
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9407,8 +9558,11 @@
       <c r="P16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9457,8 +9611,11 @@
       <c r="P17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9507,8 +9664,11 @@
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9557,8 +9717,11 @@
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9607,8 +9770,11 @@
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9657,8 +9823,11 @@
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9707,8 +9876,11 @@
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9757,8 +9929,11 @@
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="28" x14ac:dyDescent="0.25">
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9807,8 +9982,11 @@
       <c r="P24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="28" x14ac:dyDescent="0.25">
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9857,8 +10035,11 @@
       <c r="P25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9907,8 +10088,11 @@
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="28" x14ac:dyDescent="0.25">
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9957,8 +10141,11 @@
       <c r="P27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10007,8 +10194,11 @@
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10057,8 +10247,11 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10106,6 +10299,9 @@
       </c>
       <c r="P30">
         <v>1</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10123,23 +10319,23 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
-    <col min="9" max="9" width="23.08984375" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="12" width="11.90625" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -10192,7 +10388,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10245,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10298,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10351,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10404,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10457,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10510,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10563,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10616,7 +10812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10669,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10722,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10790,23 +10986,23 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
-    <col min="9" max="9" width="23.08984375" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="12" width="11.90625" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -10859,7 +11055,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10912,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10965,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11018,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11071,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11124,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11177,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11230,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11283,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11336,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11389,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11457,23 +11653,23 @@
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="9" max="9" width="58.08984375" customWidth="1"/>
-    <col min="10" max="10" width="38.36328125" customWidth="1"/>
-    <col min="11" max="12" width="12.90625" customWidth="1"/>
-    <col min="13" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1"/>
-    <col min="16" max="17" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="58.125" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -11526,7 +11722,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11579,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11632,7 +11828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11685,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11738,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11791,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11844,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11897,7 +12093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11950,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12003,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12056,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12109,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12162,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12215,7 +12411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12268,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12321,7 +12517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12374,7 +12570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12427,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12480,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12533,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12586,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>

--- a/UnitTestHVACChecker/测试数据/测试数据.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="不同顺序系统类型" sheetId="1" r:id="rId1"/>
@@ -947,16 +947,16 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -990,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1034,27 +1034,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="A1:Q18"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>99</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>99</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>99</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2018,26 +2018,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>30</v>
       </c>
       <c r="L9" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -2525,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>30</v>
       </c>
       <c r="L15" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" s="4">
         <v>2</v>
@@ -2849,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>30</v>
       </c>
       <c r="L21" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="6">
         <v>2</v>
@@ -3184,26 +3184,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="J19" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>30</v>
       </c>
       <c r="L9" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>30</v>
       </c>
       <c r="L15" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" s="4">
         <v>2</v>
@@ -4043,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>30</v>
       </c>
       <c r="L21" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="6">
         <v>2</v>
@@ -4379,7 +4379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>30</v>
       </c>
       <c r="L27" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M27" s="4">
         <v>2</v>
@@ -4726,26 +4726,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>30</v>
       </c>
       <c r="L9" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -5249,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>30</v>
       </c>
       <c r="L15" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" s="4">
         <v>2</v>
@@ -5585,7 +5585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>30</v>
       </c>
       <c r="L21" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="6">
         <v>2</v>
@@ -5921,7 +5921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -6216,18 +6216,18 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6329,23 +6329,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="70.375" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="70.36328125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="56" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="56" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="56" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6726,27 +6726,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7148,28 +7148,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
-    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
+    <col min="18" max="18" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>500</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18">
         <v>7</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>500</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19">
         <v>7</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>500</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>500</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M21">
         <v>7</v>
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>500</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M22">
         <v>7</v>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>500</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M23">
         <v>7</v>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" ht="28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>500</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M24">
         <v>7</v>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" ht="28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>500</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M25">
         <v>7</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>500</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M26">
         <v>7</v>
@@ -8625,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" ht="28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>500</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M27">
         <v>7</v>
@@ -8692,29 +8692,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E30"/>
+      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -9668,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -9827,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -10092,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -10145,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -10319,23 +10319,23 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="12" width="11.90625" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10986,23 +10986,23 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="12" width="11.90625" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11650,26 +11650,26 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="58.125" customWidth="1"/>
-    <col min="10" max="10" width="38.375" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="58.08984375" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>99</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>99</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>99</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
